--- a/1. data files/WCVI_CN_streams_master_list.xlsx
+++ b/1. data files/WCVI_CN_streams_master_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://086gc.sharepoint.com/sites/SalmonScienceStrategy-salmonFSAR/Shared Documents/salmon FSAR - sprint week/WCVI Chinook 2024/05. Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1489" documentId="13_ncr:1_{67185782-B1FA-4275-AD9C-58EC5442FEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C72C729-9EBF-41B2-895B-CA16821C4348}"/>
+  <xr:revisionPtr revIDLastSave="1496" documentId="13_ncr:1_{67185782-B1FA-4275-AD9C-58EC5442FEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6FE5DC4-026F-4895-9B31-B00563025675}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1AC6F5BD-81EB-431B-804E-57517E353274}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AC6F5BD-81EB-431B-804E-57517E353274}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -124,153 +124,432 @@
     <t>Data deficient</t>
   </si>
   <si>
+    <t>San Juan River</t>
+  </si>
+  <si>
+    <t>Harris Creek, Lens Creek</t>
+  </si>
+  <si>
+    <t>48.5599781402886 , -124.398780383873</t>
+  </si>
+  <si>
+    <t>Intensive</t>
+  </si>
+  <si>
+    <t>Integrated-hatchery</t>
+  </si>
+  <si>
+    <t>San Juan River Hatchery</t>
+  </si>
+  <si>
+    <t>Sooke River</t>
+  </si>
+  <si>
+    <t>Charters River, De Mamiel Creek</t>
+  </si>
+  <si>
+    <t>48.384125175255 , -123.699017773071</t>
+  </si>
+  <si>
+    <t>Sooke River Hatchery</t>
+  </si>
+  <si>
+    <t>Klanawa River</t>
+  </si>
+  <si>
+    <t>48.6986971429698 , -124.947686650872</t>
+  </si>
+  <si>
+    <t>Caycuse River</t>
+  </si>
+  <si>
+    <t>48.7974619805305 , -124.682812890652</t>
+  </si>
+  <si>
+    <t>Non-indicator</t>
+  </si>
+  <si>
+    <t>Nitinat River</t>
+  </si>
+  <si>
+    <t>Little Nitinat River</t>
+  </si>
+  <si>
+    <t>48.6707600078795 , -124.851885041382</t>
+  </si>
+  <si>
+    <t>Intensive/Major Ops.</t>
+  </si>
+  <si>
+    <t>Nitinat River Hatchery</t>
+  </si>
+  <si>
+    <t>Ca'aqu'a Creek</t>
+  </si>
+  <si>
+    <t>49.0145883544615 , -125.051246059207</t>
+  </si>
+  <si>
+    <t>Coeur d'Alene Creek</t>
+  </si>
+  <si>
+    <t>49.0456959405434 , -125.138102491371</t>
+  </si>
+  <si>
+    <t>Consinka Creek</t>
+  </si>
+  <si>
+    <t>48.9359891004738 , -124.981697948857</t>
+  </si>
+  <si>
+    <t>Cous Creek</t>
+  </si>
+  <si>
+    <t>49.1837079869114 , -124.829665083142</t>
+  </si>
+  <si>
+    <t>Effingham River</t>
+  </si>
+  <si>
+    <t>49.0953412771314 , -125.200767046994</t>
+  </si>
+  <si>
+    <t>Franklin River</t>
+  </si>
+  <si>
+    <t>49.103028852225 , -124.81695833637</t>
+  </si>
+  <si>
+    <t>Macktush Creek</t>
+  </si>
+  <si>
+    <t>49.1113069164442 , -124.826451412021</t>
+  </si>
+  <si>
+    <t>Mercantile Creek</t>
+  </si>
+  <si>
+    <t>48.9629849233803 , -125.558485383307</t>
+  </si>
+  <si>
+    <t>Smith Creek</t>
+  </si>
+  <si>
+    <t>48.9780231420827 , -125.574411292652</t>
+  </si>
+  <si>
+    <t>Hucuktlis River</t>
+  </si>
+  <si>
+    <t>Clemens Creek</t>
+  </si>
+  <si>
+    <t>49.0283340970065 , -125.051153905896</t>
+  </si>
+  <si>
+    <t>Nahmint River</t>
+  </si>
+  <si>
+    <t>49.0623320927593 , -124.884426248405</t>
+  </si>
+  <si>
+    <t>Integrated-transition</t>
+  </si>
+  <si>
+    <t>Robertson Creek Hatchery</t>
+  </si>
+  <si>
+    <t>Sarita River</t>
+  </si>
+  <si>
+    <t>South Sarita River</t>
+  </si>
+  <si>
+    <t>48.8970694608533 , -125.01691780365</t>
+  </si>
+  <si>
+    <t>Somass River</t>
+  </si>
+  <si>
+    <t>Stamp River, Ash River, Drinkwater Creek, McBride Creek</t>
+  </si>
+  <si>
+    <t>49.2463967865097 , -124.819839726766</t>
+  </si>
+  <si>
+    <t>PST indicator</t>
+  </si>
+  <si>
+    <t>Thornton Creek</t>
+  </si>
+  <si>
+    <t>48.9666565340045 , -125.56288151193</t>
+  </si>
+  <si>
+    <t>Thornton Creek Hatchery</t>
+  </si>
+  <si>
+    <t>Toquaht River</t>
+  </si>
+  <si>
+    <t>49.0357038005651 , -125.357480563763</t>
+  </si>
+  <si>
+    <t>Integrated-wild</t>
+  </si>
+  <si>
+    <t>Bedwell River</t>
+  </si>
+  <si>
+    <t>Ursus Creek</t>
+  </si>
+  <si>
+    <t>49.3642573253337 , -125.776843344297</t>
+  </si>
+  <si>
+    <t>Tofino Hatchery</t>
+  </si>
+  <si>
+    <t>Cypre River</t>
+  </si>
+  <si>
+    <t>49.2772808364041 , -125.919679875729</t>
+  </si>
+  <si>
+    <t>Ice River</t>
+  </si>
+  <si>
+    <t>49.4741378753608 , -126.230534803536</t>
+  </si>
+  <si>
+    <t>Kennedy River</t>
+  </si>
+  <si>
+    <t>Clayoquot River, Sand River</t>
+  </si>
+  <si>
+    <t>49.1365518880095 , -125.667669504036</t>
+  </si>
+  <si>
+    <t>Sydney River</t>
+  </si>
+  <si>
+    <t>49.5149500170675 , -126.294897709058</t>
+  </si>
+  <si>
+    <t>Tofino Creek</t>
+  </si>
+  <si>
+    <t>49.233611891929 , -125.596264975262</t>
+  </si>
+  <si>
+    <t>Watta Creek</t>
+  </si>
+  <si>
+    <t>Shelter Creek</t>
+  </si>
+  <si>
+    <t>49.4561558346996 , -126.028838536904</t>
+  </si>
+  <si>
+    <t>Megin River</t>
+  </si>
+  <si>
+    <t>Talbot Creek</t>
+  </si>
+  <si>
+    <t>49.4368307273788 , -126.084983710496</t>
+  </si>
+  <si>
+    <t>Wild-stray influenced</t>
+  </si>
+  <si>
+    <t>Moyeha River</t>
+  </si>
+  <si>
+    <t>49.4179723101786 , -125.91243792765</t>
+  </si>
+  <si>
+    <t>Warn Bay Creek</t>
+  </si>
+  <si>
+    <t>49.2643761027877 , -125.725878253402</t>
+  </si>
+  <si>
+    <t>Tranquil Creek</t>
+  </si>
+  <si>
+    <t>49.2092481678973 , -125.674073613817</t>
+  </si>
+  <si>
+    <t>Burman River</t>
+  </si>
+  <si>
+    <t>NoKy</t>
+  </si>
+  <si>
+    <t>49.6076104217907 , -126.046161396881</t>
+  </si>
+  <si>
+    <t>Conuma River Hatchery</t>
+  </si>
+  <si>
+    <t>Conuma River</t>
+  </si>
+  <si>
+    <t>49.7957485470289 , -126.438553028919</t>
+  </si>
+  <si>
+    <t>Gold River</t>
+  </si>
+  <si>
+    <t>Ucona River, Heber River, Upana River, Muchalat River</t>
+  </si>
+  <si>
+    <t>49.6811495763356 , -126.112554487143</t>
+  </si>
+  <si>
+    <t>Leiner River</t>
+  </si>
+  <si>
+    <t>Perry River</t>
+  </si>
+  <si>
+    <t>49.9118856810226 , -126.643389044036</t>
+  </si>
+  <si>
+    <t>Tahsis River Hatchery</t>
+  </si>
+  <si>
+    <t>Brodick Creek</t>
+  </si>
+  <si>
+    <t>49.8450432311195 , -126.899367724247</t>
+  </si>
+  <si>
+    <t>Chum Creek</t>
+  </si>
+  <si>
+    <t>49.9682729452014 , -126.945773763324</t>
+  </si>
+  <si>
+    <t>Eliza Creek</t>
+  </si>
+  <si>
+    <t>49.9428792766502 , -127.051587291492</t>
+  </si>
+  <si>
+    <t>Canton Creek</t>
+  </si>
+  <si>
+    <t>49.7960208108506 , -126.473421468894</t>
+  </si>
+  <si>
+    <t>Hammond Creek</t>
+  </si>
+  <si>
+    <t>49.9437964745231 , -127.0445940158</t>
+  </si>
+  <si>
+    <t>Hoiss Creek</t>
+  </si>
+  <si>
+    <t>49.6969468566363 , -126.56569963651</t>
+  </si>
+  <si>
+    <t>Jacklah River</t>
+  </si>
+  <si>
+    <t>49.6468147300955 , -126.155238365478</t>
+  </si>
+  <si>
+    <t>Deserted Creek</t>
+  </si>
+  <si>
+    <t>49.7554206271796 , -126.509925268393</t>
+  </si>
+  <si>
+    <t>Espinosa Creek</t>
+  </si>
+  <si>
+    <t>49.9888171639989 , -126.944215059089</t>
+  </si>
+  <si>
+    <t>Kleeptee Creek</t>
+  </si>
+  <si>
+    <t>49.6623642219188 , -126.370256509279</t>
+  </si>
+  <si>
+    <t>Mamat Creek</t>
+  </si>
+  <si>
+    <t>49.9602988063172 , -126.909789834042</t>
+  </si>
+  <si>
+    <t>Marvinas Bay Creek</t>
+  </si>
+  <si>
+    <t>49.6559277589634 , -126.627263153428</t>
+  </si>
+  <si>
+    <t>Little Zeballos River</t>
+  </si>
+  <si>
+    <t>49.9557470393951 , -126.817034833893</t>
+  </si>
+  <si>
+    <t>Mooyah River</t>
+  </si>
+  <si>
+    <t>49.6296556946763 , -126.447071612797</t>
+  </si>
+  <si>
+    <t>Park River</t>
+  </si>
+  <si>
+    <t>49.8863339035697 , -126.98877888248</t>
+  </si>
+  <si>
+    <t>Tsowwin River</t>
+  </si>
+  <si>
+    <t>49.7782521114883 , -126.638281306858</t>
+  </si>
+  <si>
+    <t>Sucwoa River</t>
+  </si>
+  <si>
+    <t>49.8021147542825 , -126.496410622867</t>
+  </si>
+  <si>
+    <t>Tahsis River</t>
+  </si>
+  <si>
+    <t>49.9237003955568 , -126.658556369571</t>
+  </si>
+  <si>
+    <t>Tlupana River</t>
+  </si>
+  <si>
+    <t>49.7551998911743 , -126.384843027764</t>
+  </si>
+  <si>
+    <t>Zeballos River</t>
+  </si>
+  <si>
+    <t>49.9818534068736 , -126.852641891412</t>
+  </si>
+  <si>
+    <t>Zeballos River Hatchery</t>
+  </si>
+  <si>
     <t>Artlish River</t>
   </si>
   <si>
-    <t>NoKy</t>
-  </si>
-  <si>
     <t>50.1150961042968 , -127.087527684755</t>
   </si>
   <si>
-    <t>Intensive</t>
-  </si>
-  <si>
-    <t>Wild-stray influenced</t>
-  </si>
-  <si>
-    <t>Bedwell River</t>
-  </si>
-  <si>
-    <t>Ursus Creek</t>
-  </si>
-  <si>
-    <t>49.3642573253337 , -125.776843344297</t>
-  </si>
-  <si>
-    <t>Integrated-hatchery</t>
-  </si>
-  <si>
-    <t>Tofino Hatchery</t>
-  </si>
-  <si>
-    <t>Klanawa River</t>
-  </si>
-  <si>
-    <t>48.6986971429698 , -124.947686650872</t>
-  </si>
-  <si>
-    <t>Caycuse River</t>
-  </si>
-  <si>
-    <t>48.7974619805305 , -124.682812890652</t>
-  </si>
-  <si>
-    <t>Non-indicator</t>
-  </si>
-  <si>
-    <t>Burman River</t>
-  </si>
-  <si>
-    <t>49.6076104217907 , -126.046161396881</t>
-  </si>
-  <si>
-    <t>Conuma River Hatchery</t>
-  </si>
-  <si>
-    <t>Ca'aqu'a Creek</t>
-  </si>
-  <si>
-    <t>49.0145883544615 , -125.051246059207</t>
-  </si>
-  <si>
-    <t>Coeur d'Alene Creek</t>
-  </si>
-  <si>
-    <t>49.0456959405434 , -125.138102491371</t>
-  </si>
-  <si>
-    <t>Consinka Creek</t>
-  </si>
-  <si>
-    <t>48.9359891004738 , -124.981697948857</t>
-  </si>
-  <si>
-    <t>Cous Creek</t>
-  </si>
-  <si>
-    <t>49.1837079869114 , -124.829665083142</t>
-  </si>
-  <si>
-    <t>Effingham River</t>
-  </si>
-  <si>
-    <t>49.0953412771314 , -125.200767046994</t>
-  </si>
-  <si>
-    <t>Franklin River</t>
-  </si>
-  <si>
-    <t>49.103028852225 , -124.81695833637</t>
-  </si>
-  <si>
-    <t>Conuma River</t>
-  </si>
-  <si>
-    <t>49.7957485470289 , -126.438553028919</t>
-  </si>
-  <si>
-    <t>Intensive/Major Ops.</t>
-  </si>
-  <si>
-    <t>Macktush Creek</t>
-  </si>
-  <si>
-    <t>49.1113069164442 , -124.826451412021</t>
-  </si>
-  <si>
-    <t>Mercantile Creek</t>
-  </si>
-  <si>
-    <t>48.9629849233803 , -125.558485383307</t>
-  </si>
-  <si>
-    <t>Cypre River</t>
-  </si>
-  <si>
-    <t>49.2772808364041 , -125.919679875729</t>
-  </si>
-  <si>
-    <t>Integrated-wild</t>
-  </si>
-  <si>
-    <t>Gold River</t>
-  </si>
-  <si>
-    <t>Ucona River, Heber River, Upana River, Muchalat River</t>
-  </si>
-  <si>
-    <t>49.6811495763356 , -126.112554487143</t>
-  </si>
-  <si>
-    <t>Smith Creek</t>
-  </si>
-  <si>
-    <t>48.9780231420827 , -125.574411292652</t>
-  </si>
-  <si>
-    <t>Hucuktlis River</t>
-  </si>
-  <si>
-    <t>Clemens Creek</t>
-  </si>
-  <si>
-    <t>49.0283340970065 , -125.051153905896</t>
-  </si>
-  <si>
-    <t>Nitinat River Hatchery</t>
-  </si>
-  <si>
     <t>Kaouk River</t>
   </si>
   <si>
@@ -286,52 +565,79 @@
     <t>50.1445088498345 , -127.270754143465</t>
   </si>
   <si>
-    <t>Ice River</t>
-  </si>
-  <si>
-    <t>49.4741378753608 , -126.230534803536</t>
-  </si>
-  <si>
-    <t>Kennedy River</t>
-  </si>
-  <si>
-    <t>Clayoquot River, Sand River</t>
-  </si>
-  <si>
-    <t>49.1365518880095 , -125.667669504036</t>
-  </si>
-  <si>
-    <t>Leiner River</t>
-  </si>
-  <si>
-    <t>Perry River</t>
-  </si>
-  <si>
-    <t>49.9118856810226 , -126.643389044036</t>
-  </si>
-  <si>
-    <t>Tahsis River Hatchery</t>
-  </si>
-  <si>
-    <t>Sydney River</t>
-  </si>
-  <si>
-    <t>49.5149500170675 , -126.294897709058</t>
-  </si>
-  <si>
-    <t>Tofino Creek</t>
-  </si>
-  <si>
-    <t>49.233611891929 , -125.596264975262</t>
-  </si>
-  <si>
-    <t>Watta Creek</t>
-  </si>
-  <si>
-    <t>Shelter Creek</t>
-  </si>
-  <si>
-    <t>49.4561558346996 , -126.028838536904</t>
+    <t>Tahsish River</t>
+  </si>
+  <si>
+    <t>Kwois Creek</t>
+  </si>
+  <si>
+    <t>50.1397989218646 , -127.105129278442</t>
+  </si>
+  <si>
+    <t>Amai Creek</t>
+  </si>
+  <si>
+    <t>50.0234809798922 , -127.077284763498</t>
+  </si>
+  <si>
+    <t>Chamiss Creek</t>
+  </si>
+  <si>
+    <t>50.0791703907892 , -127.288900630707</t>
+  </si>
+  <si>
+    <t>Clanninick Creek</t>
+  </si>
+  <si>
+    <t>50.0414174358389 , -127.411401267241</t>
+  </si>
+  <si>
+    <t>Kashutl River</t>
+  </si>
+  <si>
+    <t>50.1949586204776 , -127.309843829694</t>
+  </si>
+  <si>
+    <t>Easy Creek</t>
+  </si>
+  <si>
+    <t>50.1282116194552 , -127.311175512161</t>
+  </si>
+  <si>
+    <t>Nasparti River</t>
+  </si>
+  <si>
+    <t>50.1920473249629 , -127.60826633316</t>
+  </si>
+  <si>
+    <t>Malksope River</t>
+  </si>
+  <si>
+    <t>50.1385157561388 , -127.422826560337</t>
+  </si>
+  <si>
+    <t>Power River</t>
+  </si>
+  <si>
+    <t>50.1799773623326 , -127.479742586282</t>
+  </si>
+  <si>
+    <t>McKay Cove Creek</t>
+  </si>
+  <si>
+    <t>50.0458666745062 , -127.349336550142</t>
+  </si>
+  <si>
+    <t>Narrowgut Creek</t>
+  </si>
+  <si>
+    <t>49.996544907557 , -127.12309428591</t>
+  </si>
+  <si>
+    <t>Ououkinsh River</t>
+  </si>
+  <si>
+    <t>50.1871282961109 , -127.434001320218</t>
   </si>
   <si>
     <t>Marble River</t>
@@ -349,303 +655,6 @@
     <t>Marble River Hatchery</t>
   </si>
   <si>
-    <t>Megin River</t>
-  </si>
-  <si>
-    <t>Talbot Creek</t>
-  </si>
-  <si>
-    <t>49.4368307273788 , -126.084983710496</t>
-  </si>
-  <si>
-    <t>Moyeha River</t>
-  </si>
-  <si>
-    <t>49.4179723101786 , -125.91243792765</t>
-  </si>
-  <si>
-    <t>Warn Bay Creek</t>
-  </si>
-  <si>
-    <t>49.2643761027877 , -125.725878253402</t>
-  </si>
-  <si>
-    <t>Nahmint River</t>
-  </si>
-  <si>
-    <t>49.0623320927593 , -124.884426248405</t>
-  </si>
-  <si>
-    <t>Integrated-transition</t>
-  </si>
-  <si>
-    <t>Robertson Creek Hatchery</t>
-  </si>
-  <si>
-    <t>Brodick Creek</t>
-  </si>
-  <si>
-    <t>49.8450432311195 , -126.899367724247</t>
-  </si>
-  <si>
-    <t>Nitinat River</t>
-  </si>
-  <si>
-    <t>Little Nitinat River</t>
-  </si>
-  <si>
-    <t>48.6707600078795 , -124.851885041382</t>
-  </si>
-  <si>
-    <t>San Juan River</t>
-  </si>
-  <si>
-    <t>Harris Creek, Lens Creek</t>
-  </si>
-  <si>
-    <t>48.5599781402886 , -124.398780383873</t>
-  </si>
-  <si>
-    <t>San Juan River Hatchery</t>
-  </si>
-  <si>
-    <t>Chum Creek</t>
-  </si>
-  <si>
-    <t>49.9682729452014 , -126.945773763324</t>
-  </si>
-  <si>
-    <t>Sarita River</t>
-  </si>
-  <si>
-    <t>South Sarita River</t>
-  </si>
-  <si>
-    <t>48.8970694608533 , -125.01691780365</t>
-  </si>
-  <si>
-    <t>Somass River</t>
-  </si>
-  <si>
-    <t>Stamp River, Ash River, Drinkwater Creek, McBride Creek</t>
-  </si>
-  <si>
-    <t>49.2463967865097 , -124.819839726766</t>
-  </si>
-  <si>
-    <t>PST indicator</t>
-  </si>
-  <si>
-    <t>Eliza Creek</t>
-  </si>
-  <si>
-    <t>49.9428792766502 , -127.051587291492</t>
-  </si>
-  <si>
-    <t>Sooke River</t>
-  </si>
-  <si>
-    <t>Charters River, De Mamiel Creek</t>
-  </si>
-  <si>
-    <t>48.384125175255 , -123.699017773071</t>
-  </si>
-  <si>
-    <t>Sooke River Hatchery</t>
-  </si>
-  <si>
-    <t>Canton Creek</t>
-  </si>
-  <si>
-    <t>49.7960208108506 , -126.473421468894</t>
-  </si>
-  <si>
-    <t>Hammond Creek</t>
-  </si>
-  <si>
-    <t>49.9437964745231 , -127.0445940158</t>
-  </si>
-  <si>
-    <t>Hoiss Creek</t>
-  </si>
-  <si>
-    <t>49.6969468566363 , -126.56569963651</t>
-  </si>
-  <si>
-    <t>Jacklah River</t>
-  </si>
-  <si>
-    <t>49.6468147300955 , -126.155238365478</t>
-  </si>
-  <si>
-    <t>Deserted Creek</t>
-  </si>
-  <si>
-    <t>49.7554206271796 , -126.509925268393</t>
-  </si>
-  <si>
-    <t>Espinosa Creek</t>
-  </si>
-  <si>
-    <t>49.9888171639989 , -126.944215059089</t>
-  </si>
-  <si>
-    <t>Kleeptee Creek</t>
-  </si>
-  <si>
-    <t>49.6623642219188 , -126.370256509279</t>
-  </si>
-  <si>
-    <t>Mamat Creek</t>
-  </si>
-  <si>
-    <t>49.9602988063172 , -126.909789834042</t>
-  </si>
-  <si>
-    <t>Marvinas Bay Creek</t>
-  </si>
-  <si>
-    <t>49.6559277589634 , -126.627263153428</t>
-  </si>
-  <si>
-    <t>Little Zeballos River</t>
-  </si>
-  <si>
-    <t>49.9557470393951 , -126.817034833893</t>
-  </si>
-  <si>
-    <t>Mooyah River</t>
-  </si>
-  <si>
-    <t>49.6296556946763 , -126.447071612797</t>
-  </si>
-  <si>
-    <t>Park River</t>
-  </si>
-  <si>
-    <t>49.8863339035697 , -126.98877888248</t>
-  </si>
-  <si>
-    <t>Tsowwin River</t>
-  </si>
-  <si>
-    <t>49.7782521114883 , -126.638281306858</t>
-  </si>
-  <si>
-    <t>Sucwoa River</t>
-  </si>
-  <si>
-    <t>49.8021147542825 , -126.496410622867</t>
-  </si>
-  <si>
-    <t>Tahsis River</t>
-  </si>
-  <si>
-    <t>49.9237003955568 , -126.658556369571</t>
-  </si>
-  <si>
-    <t>Tahsish River</t>
-  </si>
-  <si>
-    <t>Kwois Creek</t>
-  </si>
-  <si>
-    <t>50.1397989218646 , -127.105129278442</t>
-  </si>
-  <si>
-    <t>Amai Creek</t>
-  </si>
-  <si>
-    <t>50.0234809798922 , -127.077284763498</t>
-  </si>
-  <si>
-    <t>Chamiss Creek</t>
-  </si>
-  <si>
-    <t>50.0791703907892 , -127.288900630707</t>
-  </si>
-  <si>
-    <t>Clanninick Creek</t>
-  </si>
-  <si>
-    <t>50.0414174358389 , -127.411401267241</t>
-  </si>
-  <si>
-    <t>Thornton Creek</t>
-  </si>
-  <si>
-    <t>48.9666565340045 , -125.56288151193</t>
-  </si>
-  <si>
-    <t>Thornton Creek Hatchery</t>
-  </si>
-  <si>
-    <t>Kashutl River</t>
-  </si>
-  <si>
-    <t>50.1949586204776 , -127.309843829694</t>
-  </si>
-  <si>
-    <t>Tlupana River</t>
-  </si>
-  <si>
-    <t>49.7551998911743 , -126.384843027764</t>
-  </si>
-  <si>
-    <t>Toquaht River</t>
-  </si>
-  <si>
-    <t>49.0357038005651 , -125.357480563763</t>
-  </si>
-  <si>
-    <t>Easy Creek</t>
-  </si>
-  <si>
-    <t>50.1282116194552 , -127.311175512161</t>
-  </si>
-  <si>
-    <t>Nasparti River</t>
-  </si>
-  <si>
-    <t>50.1920473249629 , -127.60826633316</t>
-  </si>
-  <si>
-    <t>Malksope River</t>
-  </si>
-  <si>
-    <t>50.1385157561388 , -127.422826560337</t>
-  </si>
-  <si>
-    <t>Power River</t>
-  </si>
-  <si>
-    <t>50.1799773623326 , -127.479742586282</t>
-  </si>
-  <si>
-    <t>McKay Cove Creek</t>
-  </si>
-  <si>
-    <t>50.0458666745062 , -127.349336550142</t>
-  </si>
-  <si>
-    <t>Narrowgut Creek</t>
-  </si>
-  <si>
-    <t>49.996544907557 , -127.12309428591</t>
-  </si>
-  <si>
-    <t>Ououkinsh River</t>
-  </si>
-  <si>
-    <t>50.1871282961109 , -127.434001320218</t>
-  </si>
-  <si>
-    <t>Tranquil Creek</t>
-  </si>
-  <si>
-    <t>49.2092481678973 , -125.674073613817</t>
-  </si>
-  <si>
     <t>Cayeghle Creek</t>
   </si>
   <si>
@@ -683,15 +692,6 @@
   </si>
   <si>
     <t>50.4579281793277 , -127.865259331131</t>
-  </si>
-  <si>
-    <t>Zeballos River</t>
-  </si>
-  <si>
-    <t>49.9818534068736 , -126.852641891412</t>
-  </si>
-  <si>
-    <t>Zeballos River Hatchery</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1179,10 +1179,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5833,7 +5829,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E68CDE15-3072-4FAE-91B8-B5DFC168F833}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E68CDE15-3072-4FAE-91B8-B5DFC168F833}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E4:E47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="22">
     <pivotField axis="axisRow" showAll="0">
@@ -6144,7 +6140,1209 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16EB475F-7088-4D49-92EC-32D666C20B47}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C023ABF1-DCAA-4CE5-8F68-315C5C75171A}" name="PivotTable15" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="P290:AB296" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="48">
+        <item h="1" x="46"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="28">
+        <item x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="10"/>
+    <field x="1"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of status" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6579A426-D60B-43FB-9FCA-6DEA77C361E7}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H4:H23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="22">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="79">
+        <item x="56"/>
+        <item x="62"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="36"/>
+        <item x="6"/>
+        <item x="40"/>
+        <item x="4"/>
+        <item x="71"/>
+        <item x="57"/>
+        <item x="35"/>
+        <item x="58"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item h="1" x="33"/>
+        <item x="9"/>
+        <item x="31"/>
+        <item x="44"/>
+        <item x="72"/>
+        <item x="63"/>
+        <item x="10"/>
+        <item x="38"/>
+        <item x="45"/>
+        <item x="11"/>
+        <item x="39"/>
+        <item x="73"/>
+        <item x="0"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="12"/>
+        <item x="21"/>
+        <item x="43"/>
+        <item x="70"/>
+        <item x="60"/>
+        <item x="59"/>
+        <item x="74"/>
+        <item x="22"/>
+        <item x="3"/>
+        <item x="75"/>
+        <item x="46"/>
+        <item x="53"/>
+        <item x="49"/>
+        <item x="13"/>
+        <item x="76"/>
+        <item x="65"/>
+        <item x="47"/>
+        <item x="77"/>
+        <item x="48"/>
+        <item x="67"/>
+        <item x="28"/>
+        <item x="14"/>
+        <item x="50"/>
+        <item x="29"/>
+        <item x="19"/>
+        <item x="68"/>
+        <item x="64"/>
+        <item h="1" x="5"/>
+        <item x="69"/>
+        <item x="51"/>
+        <item x="66"/>
+        <item x="2"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item h="1" x="15"/>
+        <item x="1"/>
+        <item x="37"/>
+        <item x="24"/>
+        <item x="54"/>
+        <item x="61"/>
+        <item x="18"/>
+        <item x="34"/>
+        <item x="25"/>
+        <item x="20"/>
+        <item x="27"/>
+        <item x="52"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="55"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="25">
+        <item x="12"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item m="1" x="23"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{772117E7-E439-4FDA-8318-9402C28CC6C9}" name="PivotTable13" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B290:N298" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="48">
+        <item h="1" x="46"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="10"/>
+    <field x="1"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="6">
+    <dataField name="Count of Mainstem" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of WA" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Avg spawners" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Natural spawners" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Sgen_lc" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Smsy_lc" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F2E390E-8DB1-4E3E-8F38-3D3391A1F319}" name="PivotTable16" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AD290:AP296" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="48">
+        <item h="1" x="46"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="7">
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="10"/>
+    <field x="1"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of status natural" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4082ECEF-2CD8-4348-9603-FAFA04A38D98}" name="PivotTable10" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N248:P253" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="48">
+        <item h="1" x="46"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="7">
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item h="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of status natural" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CCAC7AD-E1DC-4A5F-97D2-4083BF78B5C7}" name="PivotTable8" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B248:F255" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="48">
+        <item h="1" x="46"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="6">
+    <dataField name="Count of Mainstem" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of WA" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Avg spawners" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Natural spawners" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Sgen_lc" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Smsy_lc" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57F10FFC-3F70-4573-A749-21DBA7E3BEBA}" name="PivotTable9" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H248:L253" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="48">
+        <item h="1" x="46"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="28">
+        <item x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of status" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16EB475F-7088-4D49-92EC-32D666C20B47}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B4:B50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="22">
     <pivotField axis="axisRow" showAll="0">
@@ -6463,486 +7661,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CCAC7AD-E1DC-4A5F-97D2-4083BF78B5C7}" name="PivotTable8" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B248:F255" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="48">
-        <item h="1" x="46"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="6">
-    <dataField name="Count of Mainstem" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of WA" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Avg spawners" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Natural spawners" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Sgen_lc" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Smsy_lc" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F2E390E-8DB1-4E3E-8F38-3D3391A1F319}" name="PivotTable16" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AD290:AP296" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="48">
-        <item h="1" x="46"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="7">
-        <item h="1" x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="10"/>
-    <field x="1"/>
-  </colFields>
-  <colItems count="12">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of status natural" fld="9" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="11">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57F10FFC-3F70-4573-A749-21DBA7E3BEBA}" name="PivotTable9" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H248:L253" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="48">
-        <item h="1" x="46"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="28">
-        <item x="3"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of status" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{65F5C784-2DD3-4740-BC26-D04D0431309A}" name="PivotTable6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{65F5C784-2DD3-4740-BC26-D04D0431309A}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K4:K11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="22">
     <pivotField axis="axisRow" showAll="0">
@@ -7144,730 +7864,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{772117E7-E439-4FDA-8318-9402C28CC6C9}" name="PivotTable13" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B290:N298" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="48">
-        <item h="1" x="46"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="10"/>
-    <field x="1"/>
-  </colFields>
-  <colItems count="12">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="6">
-    <dataField name="Count of Mainstem" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of WA" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Avg spawners" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Natural spawners" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Sgen_lc" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Smsy_lc" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="12">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6579A426-D60B-43FB-9FCA-6DEA77C361E7}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H4:H23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="22">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="79">
-        <item x="56"/>
-        <item x="62"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="36"/>
-        <item x="6"/>
-        <item x="40"/>
-        <item x="4"/>
-        <item x="71"/>
-        <item x="57"/>
-        <item x="35"/>
-        <item x="58"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item h="1" x="33"/>
-        <item x="9"/>
-        <item x="31"/>
-        <item x="44"/>
-        <item x="72"/>
-        <item x="63"/>
-        <item x="10"/>
-        <item x="38"/>
-        <item x="45"/>
-        <item x="11"/>
-        <item x="39"/>
-        <item x="73"/>
-        <item x="0"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="12"/>
-        <item x="21"/>
-        <item x="43"/>
-        <item x="70"/>
-        <item x="60"/>
-        <item x="59"/>
-        <item x="74"/>
-        <item x="22"/>
-        <item x="3"/>
-        <item x="75"/>
-        <item x="46"/>
-        <item x="53"/>
-        <item x="49"/>
-        <item x="13"/>
-        <item x="76"/>
-        <item x="65"/>
-        <item x="47"/>
-        <item x="77"/>
-        <item x="48"/>
-        <item x="67"/>
-        <item x="28"/>
-        <item x="14"/>
-        <item x="50"/>
-        <item x="29"/>
-        <item x="19"/>
-        <item x="68"/>
-        <item x="64"/>
-        <item h="1" x="5"/>
-        <item x="69"/>
-        <item x="51"/>
-        <item x="66"/>
-        <item x="2"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item h="1" x="15"/>
-        <item x="1"/>
-        <item x="37"/>
-        <item x="24"/>
-        <item x="54"/>
-        <item x="61"/>
-        <item x="18"/>
-        <item x="34"/>
-        <item x="25"/>
-        <item x="20"/>
-        <item x="27"/>
-        <item x="52"/>
-        <item x="30"/>
-        <item x="26"/>
-        <item x="55"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="25">
-        <item x="12"/>
-        <item x="2"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item m="1" x="23"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="7"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="19">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C023ABF1-DCAA-4CE5-8F68-315C5C75171A}" name="PivotTable15" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="P290:AB296" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="48">
-        <item h="1" x="46"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="28">
-        <item x="3"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="10"/>
-    <field x="1"/>
-  </colFields>
-  <colItems count="12">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of status" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="13">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4082ECEF-2CD8-4348-9603-FAFA04A38D98}" name="PivotTable10" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N248:P253" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="48">
-        <item h="1" x="46"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="7">
-        <item h="1" x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item h="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of status natural" fld="9" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9920C07F-8C50-4A82-8AAB-17CDC894757D}" name="master_list" displayName="master_list" ref="A1:V79" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="A1:V79" xr:uid="{9920C07F-8C50-4A82-8AAB-17CDC894757D}"/>
@@ -7895,8 +7891,8 @@
     <tableColumn id="13" xr3:uid="{7717E354-104C-4916-9BEE-BC10006C9BCA}" name="Current status" dataDxfId="25">
       <calculatedColumnFormula>IF(ISBLANK(master_list[[#This Row],[Accessible watershed area (km^2)]]), "No data", IF(master_list[[#This Row],[Average escapement (2010+)]]&lt;=master_list[[#This Row],[Sgen_lc]], "Red", IF(master_list[[#This Row],[Average escapement (2010+)]]&lt;=0.85*master_list[[#This Row],[Smsy_lc]], "Amber", IF(master_list[[#This Row],[Average escapement (2010+)]]&gt;=0.85*master_list[[#This Row],[Smsy_lc]], "Green", NA()))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{52DD1C0F-A2A5-4ADC-8D9C-5193264EC969}" name="Average pNOS (2010+)" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{D32B6C1D-AA8A-428C-AEFE-83E5415D870D}" name="Current Withler Designation" dataDxfId="24" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{52DD1C0F-A2A5-4ADC-8D9C-5193264EC969}" name="Average pNOS (2010+)"/>
+    <tableColumn id="7" xr3:uid="{D32B6C1D-AA8A-428C-AEFE-83E5415D870D}" name="Current Withler Designation" dataDxfId="24"/>
     <tableColumn id="10" xr3:uid="{3FD20598-C043-4190-88AB-2108E65C8E43}" name="Average SEP releases (2010+)" dataDxfId="23" dataCellStyle="Comma"/>
     <tableColumn id="11" xr3:uid="{2A34AAD3-2E0D-4471-85BD-852C72FDEA6F}" name="Enhancement facility"/>
   </tableColumns>
@@ -8292,25 +8288,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC3D230-501C-401D-98D5-3B84F6774077}">
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S55" sqref="S55"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="19" width="9.5703125" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" customWidth="1"/>
-    <col min="22" max="22" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="4" width="9.5546875" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="19" width="9.5546875" customWidth="1"/>
+    <col min="20" max="20" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.44140625" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8378,7 +8374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8437,12 +8433,12 @@
       </c>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -8451,7 +8447,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -8497,21 +8493,21 @@
         <v>0.41</v>
       </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U3" s="3">
         <v>393953</v>
       </c>
       <c r="V3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -8520,7 +8516,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -8564,16 +8560,16 @@
       </c>
       <c r="S4" s="2"/>
       <c r="T4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U4" s="3">
         <v>699164</v>
       </c>
       <c r="V4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -8601,7 +8597,7 @@
       </c>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -8629,12 +8625,12 @@
       </c>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -8643,10 +8639,10 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1">
         <v>111.51</v>
@@ -8689,18 +8685,18 @@
         <v>8.435036363636364E-2</v>
       </c>
       <c r="T7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U7" s="3">
         <v>3454786</v>
       </c>
       <c r="V7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -8709,7 +8705,7 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
         <v>41</v>
@@ -8726,9 +8722,9 @@
       </c>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -8737,7 +8733,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
         <v>41</v>
@@ -8754,9 +8750,9 @@
       </c>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -8765,7 +8761,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
         <v>41</v>
@@ -8782,9 +8778,9 @@
       </c>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -8793,7 +8789,7 @@
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
@@ -8810,9 +8806,9 @@
       </c>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -8821,7 +8817,7 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -8869,9 +8865,9 @@
       </c>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -8880,7 +8876,7 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
         <v>41</v>
@@ -8897,9 +8893,9 @@
       </c>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -8908,7 +8904,7 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
         <v>41</v>
@@ -8925,9 +8921,9 @@
       </c>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -8936,7 +8932,7 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
         <v>41</v>
@@ -8984,9 +8980,9 @@
       </c>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -8995,7 +8991,7 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
         <v>41</v>
@@ -9012,12 +9008,12 @@
       </c>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -9026,7 +9022,7 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
         <v>30</v>
@@ -9070,18 +9066,18 @@
       </c>
       <c r="S17" s="2"/>
       <c r="T17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U17" s="3">
         <v>34304</v>
       </c>
       <c r="V17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -9090,7 +9086,7 @@
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
         <v>30</v>
@@ -9136,21 +9132,21 @@
         <v>0.69050336363636378</v>
       </c>
       <c r="T18" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="U18" s="3">
         <v>47853</v>
       </c>
       <c r="V18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -9159,7 +9155,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
         <v>30</v>
@@ -9205,21 +9201,21 @@
         <v>0.131164</v>
       </c>
       <c r="T19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U19" s="3">
         <v>391653</v>
       </c>
       <c r="V19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>127</v>
-      </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -9228,10 +9224,10 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="G20" s="1">
         <v>1057</v>
@@ -9274,18 +9270,18 @@
         <v>0.12654158333333335</v>
       </c>
       <c r="T20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U20" s="3">
         <v>6393606</v>
       </c>
       <c r="V20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -9294,7 +9290,7 @@
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -9338,18 +9334,18 @@
       </c>
       <c r="S21" s="2"/>
       <c r="T21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U21" s="3">
         <v>174100</v>
       </c>
       <c r="V21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -9358,7 +9354,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
         <v>30</v>
@@ -9377,21 +9373,21 @@
         <v>0.94</v>
       </c>
       <c r="T22" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="U22" s="3">
         <v>75079</v>
       </c>
       <c r="V22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -9400,7 +9396,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
         <v>30</v>
@@ -9446,18 +9442,18 @@
         <v>0.84678037500000003</v>
       </c>
       <c r="T23" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="U23" s="3">
         <v>18637</v>
       </c>
       <c r="V23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -9466,7 +9462,7 @@
         <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
         <v>30</v>
@@ -9512,18 +9508,18 @@
         <v>0.97114</v>
       </c>
       <c r="T24" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="U24" s="3">
         <v>38454</v>
       </c>
       <c r="V24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -9532,7 +9528,7 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
         <v>41</v>
@@ -9580,12 +9576,12 @@
       </c>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -9594,7 +9590,7 @@
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
         <v>30</v>
@@ -9640,9 +9636,9 @@
       </c>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -9651,7 +9647,7 @@
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
@@ -9699,9 +9695,9 @@
       </c>
       <c r="U27" s="3"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -9710,7 +9706,7 @@
         <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
         <v>41</v>
@@ -9758,12 +9754,12 @@
       </c>
       <c r="U28" s="3"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -9772,7 +9768,7 @@
         <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
         <v>41</v>
@@ -9820,12 +9816,12 @@
       </c>
       <c r="U29" s="3"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -9834,7 +9830,7 @@
         <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -9880,13 +9876,13 @@
         <v>0.4166665</v>
       </c>
       <c r="T30" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="U30" s="3"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -9895,7 +9891,7 @@
         <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
         <v>30</v>
@@ -9941,13 +9937,13 @@
         <v>0.8181816666666667</v>
       </c>
       <c r="T31" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="U31" s="3"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
@@ -9956,7 +9952,7 @@
         <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F32" t="s">
         <v>25</v>
@@ -9973,9 +9969,9 @@
       </c>
       <c r="U32" s="3"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
@@ -9984,7 +9980,7 @@
         <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="F33" t="s">
         <v>30</v>
@@ -10030,27 +10026,27 @@
         <v>0.96296300000000001</v>
       </c>
       <c r="T33" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="U33" s="3">
         <v>15633</v>
       </c>
       <c r="V33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D34">
         <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="F34" t="s">
         <v>30</v>
@@ -10096,30 +10092,30 @@
         <v>9.3825166666666668E-2</v>
       </c>
       <c r="T34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U34" s="3">
         <v>254011</v>
       </c>
       <c r="V34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D35">
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G35" s="1">
         <v>19.71</v>
@@ -10162,30 +10158,30 @@
         <v>1.9189000000000001E-2</v>
       </c>
       <c r="T35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U35" s="3">
         <v>2851245</v>
       </c>
       <c r="V35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D36">
         <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
@@ -10231,30 +10227,30 @@
         <v>0.23036571875</v>
       </c>
       <c r="T36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U36" s="3">
         <v>262245</v>
       </c>
       <c r="V36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D37">
         <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s">
         <v>30</v>
@@ -10300,27 +10296,27 @@
         <v>0.31911450000000002</v>
       </c>
       <c r="T37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U37" s="3">
         <v>120569</v>
       </c>
       <c r="V37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D38">
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s">
         <v>41</v>
@@ -10337,18 +10333,18 @@
       </c>
       <c r="U38" s="3"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D39">
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
         <v>41</v>
@@ -10365,18 +10361,18 @@
       </c>
       <c r="U39" s="3"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D40">
         <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F40" t="s">
         <v>41</v>
@@ -10393,18 +10389,18 @@
       </c>
       <c r="U40" s="3"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D41">
         <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F41" t="s">
         <v>25</v>
@@ -10452,18 +10448,18 @@
       </c>
       <c r="U41" s="3"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D42">
         <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F42" t="s">
         <v>41</v>
@@ -10480,18 +10476,18 @@
       </c>
       <c r="U42" s="3"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D43">
         <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s">
         <v>41</v>
@@ -10508,18 +10504,18 @@
       </c>
       <c r="U43" s="3"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D44">
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F44" t="s">
         <v>41</v>
@@ -10536,18 +10532,18 @@
       </c>
       <c r="U44" s="3"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D45">
         <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F45" t="s">
         <v>41</v>
@@ -10593,18 +10589,18 @@
       </c>
       <c r="U45" s="3"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D46">
         <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F46" t="s">
         <v>25</v>
@@ -10652,18 +10648,18 @@
       </c>
       <c r="U46" s="3"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D47">
         <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F47" t="s">
         <v>41</v>
@@ -10711,18 +10707,18 @@
       </c>
       <c r="U47" s="3"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D48">
         <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F48" t="s">
         <v>41</v>
@@ -10739,18 +10735,18 @@
       </c>
       <c r="U48" s="3"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D49">
         <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F49" t="s">
         <v>41</v>
@@ -10767,18 +10763,18 @@
       </c>
       <c r="U49" s="3"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D50">
         <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F50" t="s">
         <v>25</v>
@@ -10826,18 +10822,18 @@
       </c>
       <c r="U50" s="3"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D51">
         <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F51" t="s">
         <v>41</v>
@@ -10885,18 +10881,18 @@
       </c>
       <c r="U51" s="3"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D52">
         <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F52" t="s">
         <v>41</v>
@@ -10942,18 +10938,18 @@
       </c>
       <c r="U52" s="3"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D53">
         <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F53" t="s">
         <v>25</v>
@@ -11001,18 +10997,18 @@
       </c>
       <c r="U53" s="3"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D54">
         <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F54" t="s">
         <v>25</v>
@@ -11058,27 +11054,27 @@
         <v>0.1111115</v>
       </c>
       <c r="T54" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U54" s="3">
         <v>2093</v>
       </c>
       <c r="V54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D55">
         <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F55" t="s">
         <v>30</v>
@@ -11124,27 +11120,27 @@
         <v>0.35971340000000002</v>
       </c>
       <c r="T55" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U55" s="3">
         <v>82572</v>
       </c>
       <c r="V55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D56">
         <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="F56" t="s">
         <v>25</v>
@@ -11190,27 +11186,27 @@
         <v>8.5606000000000002E-2</v>
       </c>
       <c r="T56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U56" s="3">
         <v>13291</v>
       </c>
       <c r="V56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D57">
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="F57" t="s">
         <v>30</v>
@@ -11258,21 +11254,21 @@
       </c>
       <c r="U57" s="3"/>
       <c r="V57" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D58">
         <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="F58" t="s">
         <v>30</v>
@@ -11318,25 +11314,25 @@
         <v>0.61111099999999996</v>
       </c>
       <c r="T58" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="U58" s="3"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D59">
         <v>26</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="F59" t="s">
         <v>30</v>
@@ -11382,22 +11378,22 @@
         <v>0.91071433333333329</v>
       </c>
       <c r="T59" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="U59" s="3"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D60">
         <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="F60" t="s">
         <v>25</v>
@@ -11441,25 +11437,25 @@
       </c>
       <c r="S60" s="2"/>
       <c r="T60" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="U60" s="3"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D61">
         <v>26</v>
       </c>
       <c r="E61" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F61" t="s">
         <v>30</v>
@@ -11505,22 +11501,22 @@
         <v>0.59850800000000004</v>
       </c>
       <c r="T61" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="U61" s="3"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D62">
         <v>26</v>
       </c>
       <c r="E62" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F62" t="s">
         <v>25</v>
@@ -11537,18 +11533,18 @@
       </c>
       <c r="U62" s="3"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D63">
         <v>26</v>
       </c>
       <c r="E63" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F63" t="s">
         <v>41</v>
@@ -11565,18 +11561,18 @@
       </c>
       <c r="U63" s="3"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D64">
         <v>26</v>
       </c>
       <c r="E64" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F64" t="s">
         <v>41</v>
@@ -11593,18 +11589,18 @@
       </c>
       <c r="U64" s="3"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D65">
         <v>26</v>
       </c>
       <c r="E65" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F65" t="s">
         <v>25</v>
@@ -11621,12 +11617,12 @@
       </c>
       <c r="U65" s="3"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>185</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D66">
         <v>26</v>
@@ -11680,12 +11676,12 @@
       </c>
       <c r="U66" s="3"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>187</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D67">
         <v>26</v>
@@ -11708,12 +11704,12 @@
       </c>
       <c r="U67" s="3"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>189</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D68">
         <v>26</v>
@@ -11767,12 +11763,12 @@
       </c>
       <c r="U68" s="3"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>191</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D69">
         <v>26</v>
@@ -11795,12 +11791,12 @@
       </c>
       <c r="U69" s="3"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>193</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D70">
         <v>26</v>
@@ -11854,12 +11850,12 @@
       </c>
       <c r="U70" s="3"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>195</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D71">
         <v>26</v>
@@ -11913,12 +11909,12 @@
       </c>
       <c r="U71" s="3"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>197</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D72">
         <v>26</v>
@@ -11972,21 +11968,21 @@
       </c>
       <c r="U72" s="3"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="D73">
         <v>27</v>
       </c>
       <c r="E73" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="F73" t="s">
         <v>30</v>
@@ -12032,30 +12028,30 @@
         <v>0.92977299999999996</v>
       </c>
       <c r="T73" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="U73" s="3">
         <v>183704</v>
       </c>
       <c r="V73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" t="s">
         <v>201</v>
-      </c>
-      <c r="B74" t="s">
-        <v>202</v>
-      </c>
-      <c r="C74" t="s">
-        <v>99</v>
       </c>
       <c r="D74">
         <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F74" t="s">
         <v>30</v>
@@ -12103,18 +12099,18 @@
       </c>
       <c r="U74" s="3"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="D75">
         <v>27</v>
       </c>
       <c r="E75" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F75" t="s">
         <v>41</v>
@@ -12131,18 +12127,18 @@
       </c>
       <c r="U75" s="3"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="D76">
         <v>27</v>
       </c>
       <c r="E76" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F76" t="s">
         <v>41</v>
@@ -12159,18 +12155,18 @@
       </c>
       <c r="U76" s="3"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="D77">
         <v>27</v>
       </c>
       <c r="E77" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F77" t="s">
         <v>41</v>
@@ -12187,18 +12183,18 @@
       </c>
       <c r="U77" s="3"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="D78">
         <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F78" t="s">
         <v>41</v>
@@ -12215,18 +12211,18 @@
       </c>
       <c r="U78" s="3"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C79" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="D79">
         <v>27</v>
       </c>
       <c r="E79" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F79" t="s">
         <v>41</v>
@@ -12243,7 +12239,7 @@
       </c>
       <c r="U79" s="3"/>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I85" t="s">
         <v>217</v>
       </c>
@@ -12273,42 +12269,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1073E299-CBA6-4B53-8E46-822142F7C984}">
   <dimension ref="B1:AP319"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="3.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>218</v>
       </c>
@@ -12322,7 +12318,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -12348,7 +12344,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>223</v>
       </c>
@@ -12362,301 +12358,301 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>185</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>185</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>189</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>189</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>193</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>195</v>
       </c>
@@ -12664,150 +12660,150 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
         <v>0</v>
       </c>
@@ -12842,7 +12838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" t="str">
         <f t="shared" ref="B56:B101" si="0">B5</f>
         <v>Artlish River</v>
@@ -12887,7 +12883,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B57" t="str">
         <f t="shared" si="0"/>
         <v>Bedwell River</v>
@@ -12932,7 +12928,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" t="str">
         <f t="shared" si="0"/>
         <v>Burman River</v>
@@ -12977,7 +12973,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" t="str">
         <f t="shared" si="0"/>
         <v>Canton Creek</v>
@@ -13022,7 +13018,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B60" t="str">
         <f t="shared" si="0"/>
         <v>Cayeghle Creek</v>
@@ -13067,7 +13063,7 @@
         <v>NWVI</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B61" t="str">
         <f t="shared" si="0"/>
         <v>Conuma River</v>
@@ -13112,7 +13108,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B62" t="str">
         <f t="shared" si="0"/>
         <v>Cypre River</v>
@@ -13157,7 +13153,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B63" t="str">
         <f t="shared" si="0"/>
         <v>Easy Creek</v>
@@ -13202,7 +13198,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B64" t="str">
         <f t="shared" si="0"/>
         <v>Effingham River</v>
@@ -13247,7 +13243,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B65" t="str">
         <f t="shared" si="0"/>
         <v>Espinosa Creek</v>
@@ -13292,7 +13288,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B66" t="str">
         <f t="shared" si="0"/>
         <v>Gold River</v>
@@ -13337,7 +13333,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B67" t="str">
         <f t="shared" si="0"/>
         <v>Gordon River</v>
@@ -13382,7 +13378,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B68" t="str">
         <f t="shared" si="0"/>
         <v>Hucuktlis River</v>
@@ -13427,7 +13423,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B69" t="str">
         <f t="shared" si="0"/>
         <v>Ice River</v>
@@ -13472,7 +13468,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B70" t="str">
         <f t="shared" si="0"/>
         <v>Kaouk River</v>
@@ -13517,7 +13513,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B71" t="str">
         <f t="shared" si="0"/>
         <v>Kauwinch River</v>
@@ -13562,7 +13558,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B72" t="str">
         <f t="shared" si="0"/>
         <v>Kleeptee Creek</v>
@@ -13607,7 +13603,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B73" t="str">
         <f t="shared" si="0"/>
         <v>Leiner River</v>
@@ -13652,7 +13648,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B74" t="str">
         <f t="shared" si="0"/>
         <v>Little Zeballos River</v>
@@ -13697,7 +13693,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B75" t="str">
         <f t="shared" si="0"/>
         <v>Malksope River</v>
@@ -13742,7 +13738,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B76" t="str">
         <f t="shared" si="0"/>
         <v>Marble River</v>
@@ -13787,7 +13783,7 @@
         <v>NWVI</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B77" t="str">
         <f t="shared" si="0"/>
         <v>McKay Cove Creek</v>
@@ -13832,7 +13828,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B78" t="str">
         <f t="shared" si="0"/>
         <v>Megin River</v>
@@ -13877,7 +13873,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" t="str">
         <f t="shared" si="0"/>
         <v>Mercantile Creek</v>
@@ -13922,7 +13918,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B80" t="str">
         <f t="shared" si="0"/>
         <v>Mooyah River</v>
@@ -13967,7 +13963,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B81" t="str">
         <f t="shared" si="0"/>
         <v>Moyeha River</v>
@@ -14012,7 +14008,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B82" t="str">
         <f t="shared" si="0"/>
         <v>Nahmint River</v>
@@ -14057,7 +14053,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B83" t="str">
         <f t="shared" si="0"/>
         <v>Narrowgut Creek</v>
@@ -14102,7 +14098,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B84" t="str">
         <f t="shared" si="0"/>
         <v>Nitinat River</v>
@@ -14147,7 +14143,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B85" t="str">
         <f t="shared" si="0"/>
         <v>Ououkinsh River</v>
@@ -14192,7 +14188,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B86" t="str">
         <f t="shared" si="0"/>
         <v>San Juan River</v>
@@ -14237,7 +14233,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B87" t="str">
         <f t="shared" si="0"/>
         <v>Sarita River</v>
@@ -14282,7 +14278,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B88" t="str">
         <f t="shared" si="0"/>
         <v>Somass River</v>
@@ -14327,7 +14323,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B89" t="str">
         <f t="shared" si="0"/>
         <v>Sooke River</v>
@@ -14372,7 +14368,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B90" t="str">
         <f t="shared" si="0"/>
         <v>Sucwoa River</v>
@@ -14417,7 +14413,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B91" t="str">
         <f t="shared" si="0"/>
         <v>Sydney River</v>
@@ -14462,7 +14458,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B92" t="str">
         <f t="shared" si="0"/>
         <v>Tahsis River</v>
@@ -14507,7 +14503,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B93" t="str">
         <f t="shared" si="0"/>
         <v>Tahsish River</v>
@@ -14552,7 +14548,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B94" t="str">
         <f t="shared" si="0"/>
         <v>Thornton Creek</v>
@@ -14597,7 +14593,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B95" t="str">
         <f t="shared" si="0"/>
         <v>Tlupana River</v>
@@ -14642,7 +14638,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B96" t="str">
         <f t="shared" si="0"/>
         <v>Tofino Creek</v>
@@ -14687,7 +14683,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B97" t="str">
         <f t="shared" si="0"/>
         <v>Toquaht River</v>
@@ -14732,7 +14728,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B98" t="str">
         <f t="shared" si="0"/>
         <v>Tranquil Creek</v>
@@ -14777,7 +14773,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B99" t="str">
         <f t="shared" si="0"/>
         <v>Tsowwin River</v>
@@ -14822,7 +14818,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B100" t="str">
         <f t="shared" si="0"/>
         <v>Watta Creek</v>
@@ -14867,7 +14863,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B101" t="str">
         <f t="shared" si="0"/>
         <v>Zeballos River</v>
@@ -14912,7 +14908,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B102" t="str">
         <f>E5</f>
         <v>Artlish River</v>
@@ -14957,7 +14953,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B103" t="str">
         <f t="shared" ref="B103:B147" si="1">E6</f>
         <v>Bedwell River</v>
@@ -15002,7 +14998,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B104" t="str">
         <f t="shared" si="1"/>
         <v>Burman River</v>
@@ -15047,7 +15043,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B105" t="str">
         <f t="shared" si="1"/>
         <v>Canton Creek</v>
@@ -15092,7 +15088,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B106" t="str">
         <f t="shared" si="1"/>
         <v>Cayeghle Creek</v>
@@ -15137,7 +15133,7 @@
         <v>NWVI</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B107" t="str">
         <f t="shared" si="1"/>
         <v>Cypre River</v>
@@ -15182,7 +15178,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B108" t="str">
         <f t="shared" si="1"/>
         <v>Easy Creek</v>
@@ -15227,7 +15223,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B109" t="str">
         <f t="shared" si="1"/>
         <v>Effingham River</v>
@@ -15272,7 +15268,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B110" t="str">
         <f t="shared" si="1"/>
         <v>Espinosa Creek</v>
@@ -15317,7 +15313,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B111" t="str">
         <f t="shared" si="1"/>
         <v>Gold River</v>
@@ -15362,7 +15358,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B112" t="str">
         <f t="shared" si="1"/>
         <v>Gordon River</v>
@@ -15407,7 +15403,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B113" t="str">
         <f t="shared" si="1"/>
         <v>Hucuktlis River</v>
@@ -15452,7 +15448,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B114" t="str">
         <f t="shared" si="1"/>
         <v>Ice River</v>
@@ -15497,7 +15493,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B115" t="str">
         <f t="shared" si="1"/>
         <v>Kaouk River</v>
@@ -15542,7 +15538,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B116" t="str">
         <f t="shared" si="1"/>
         <v>Kauwinch River</v>
@@ -15587,7 +15583,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B117" t="str">
         <f t="shared" si="1"/>
         <v>Kleeptee Creek</v>
@@ -15632,7 +15628,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B118" t="str">
         <f t="shared" si="1"/>
         <v>Leiner River</v>
@@ -15677,7 +15673,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B119" t="str">
         <f t="shared" si="1"/>
         <v>Little Zeballos River</v>
@@ -15722,7 +15718,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B120" t="str">
         <f t="shared" si="1"/>
         <v>Malksope River</v>
@@ -15767,7 +15763,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B121" t="str">
         <f t="shared" si="1"/>
         <v>Marble River</v>
@@ -15812,7 +15808,7 @@
         <v>NWVI</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B122" t="str">
         <f t="shared" si="1"/>
         <v>McKay Cove Creek</v>
@@ -15857,7 +15853,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B123" t="str">
         <f t="shared" si="1"/>
         <v>Megin River</v>
@@ -15902,7 +15898,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B124" t="str">
         <f t="shared" si="1"/>
         <v>Mercantile Creek</v>
@@ -15947,7 +15943,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B125" t="str">
         <f t="shared" si="1"/>
         <v>Mooyah River</v>
@@ -15992,7 +15988,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B126" t="str">
         <f t="shared" si="1"/>
         <v>Moyeha River</v>
@@ -16037,7 +16033,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B127" t="str">
         <f t="shared" si="1"/>
         <v>Nahmint River</v>
@@ -16082,7 +16078,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B128" t="str">
         <f t="shared" si="1"/>
         <v>Narrowgut Creek</v>
@@ -16127,7 +16123,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B129" t="str">
         <f t="shared" si="1"/>
         <v>Ououkinsh River</v>
@@ -16172,7 +16168,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B130" t="str">
         <f t="shared" si="1"/>
         <v>San Juan River</v>
@@ -16217,7 +16213,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B131" t="str">
         <f t="shared" si="1"/>
         <v>Sarita River</v>
@@ -16262,7 +16258,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B132" t="str">
         <f t="shared" si="1"/>
         <v>Sooke River</v>
@@ -16307,7 +16303,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B133" t="str">
         <f t="shared" si="1"/>
         <v>Sucwoa River</v>
@@ -16352,7 +16348,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B134" t="str">
         <f t="shared" si="1"/>
         <v>Sydney River</v>
@@ -16397,7 +16393,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B135" t="str">
         <f t="shared" si="1"/>
         <v>Tahsis River</v>
@@ -16442,7 +16438,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B136" t="str">
         <f t="shared" si="1"/>
         <v>Tahsish River</v>
@@ -16487,7 +16483,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B137" t="str">
         <f t="shared" si="1"/>
         <v>Thornton Creek</v>
@@ -16532,7 +16528,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B138" t="str">
         <f t="shared" si="1"/>
         <v>Tlupana River</v>
@@ -16577,7 +16573,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B139" t="str">
         <f t="shared" si="1"/>
         <v>Tofino Creek</v>
@@ -16622,7 +16618,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B140" t="str">
         <f t="shared" si="1"/>
         <v>Toquaht River</v>
@@ -16667,7 +16663,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B141" t="str">
         <f t="shared" si="1"/>
         <v>Tranquil Creek</v>
@@ -16712,7 +16708,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B142" t="str">
         <f t="shared" si="1"/>
         <v>Tsowwin River</v>
@@ -16757,7 +16753,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B143" t="str">
         <f t="shared" si="1"/>
         <v>Watta Creek</v>
@@ -16802,7 +16798,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B144" t="str">
         <f t="shared" si="1"/>
         <v>Zeballos River</v>
@@ -16847,7 +16843,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="145" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16892,7 +16888,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16937,7 +16933,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16982,7 +16978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B148" t="str">
         <f>H5</f>
         <v>Artlish River</v>
@@ -17027,7 +17023,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B149" t="str">
         <f t="shared" ref="B149:B192" si="2">H6</f>
         <v>Bedwell River</v>
@@ -17072,7 +17068,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B150" t="str">
         <f t="shared" si="2"/>
         <v>Burman River</v>
@@ -17117,7 +17113,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B151" t="str">
         <f t="shared" si="2"/>
         <v>Cypre River</v>
@@ -17162,7 +17158,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B152" t="str">
         <f t="shared" si="2"/>
         <v>Gold River</v>
@@ -17207,7 +17203,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B153" t="str">
         <f t="shared" si="2"/>
         <v>Kaouk River</v>
@@ -17252,7 +17248,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B154" t="str">
         <f t="shared" si="2"/>
         <v>Leiner River</v>
@@ -17297,7 +17293,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B155" t="str">
         <f t="shared" si="2"/>
         <v>Marble River</v>
@@ -17342,7 +17338,7 @@
         <v>NWVI</v>
       </c>
     </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B156" t="str">
         <f t="shared" si="2"/>
         <v>Megin River</v>
@@ -17387,7 +17383,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B157" t="str">
         <f t="shared" si="2"/>
         <v>Moyeha River</v>
@@ -17432,7 +17428,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B158" t="str">
         <f t="shared" si="2"/>
         <v>Nahmint River</v>
@@ -17477,7 +17473,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B159" t="str">
         <f t="shared" si="2"/>
         <v>San Juan River</v>
@@ -17522,7 +17518,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B160" t="str">
         <f t="shared" si="2"/>
         <v>Sarita River</v>
@@ -17567,7 +17563,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B161" t="str">
         <f t="shared" si="2"/>
         <v>Sucwoa River</v>
@@ -17612,7 +17608,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B162" t="str">
         <f t="shared" si="2"/>
         <v>Tahsis River</v>
@@ -17657,7 +17653,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B163" t="str">
         <f t="shared" si="2"/>
         <v>Tahsish River</v>
@@ -17702,7 +17698,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B164" t="str">
         <f t="shared" si="2"/>
         <v>Tlupana River</v>
@@ -17747,7 +17743,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="165" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" t="str">
         <f t="shared" si="2"/>
         <v>Toquaht River</v>
@@ -17792,7 +17788,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="166" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" t="str">
         <f t="shared" si="2"/>
         <v>Tranquil Creek</v>
@@ -17837,7 +17833,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="167" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17882,7 +17878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17927,7 +17923,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17972,7 +17968,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18017,7 +18013,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18062,7 +18058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18107,7 +18103,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18152,7 +18148,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18197,7 +18193,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18242,7 +18238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18287,7 +18283,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18332,7 +18328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18377,7 +18373,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18422,7 +18418,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B180">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18467,7 +18463,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18512,7 +18508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B182">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18557,7 +18553,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B183">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18602,7 +18598,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B184">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18647,7 +18643,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B185">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18692,7 +18688,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B186">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18737,7 +18733,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B187">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18782,7 +18778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B188">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18827,7 +18823,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B189">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18872,7 +18868,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B190">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18917,7 +18913,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B191">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18962,7 +18958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B192">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -19007,7 +19003,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193">
         <f>H50</f>
         <v>0</v>
@@ -19052,7 +19048,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B194" t="str">
         <f>K5</f>
         <v>Artlish River</v>
@@ -19097,7 +19093,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B195" t="str">
         <f t="shared" ref="B195:B238" si="3">K6</f>
         <v>Bedwell River</v>
@@ -19142,7 +19138,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B196" t="str">
         <f t="shared" si="3"/>
         <v>Kaouk River</v>
@@ -19187,7 +19183,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B197" t="str">
         <f t="shared" si="3"/>
         <v>Marble River</v>
@@ -19232,7 +19228,7 @@
         <v>NWVI</v>
       </c>
     </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B198" t="str">
         <f t="shared" si="3"/>
         <v>Megin River</v>
@@ -19277,7 +19273,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B199" t="str">
         <f t="shared" si="3"/>
         <v>Moyeha River</v>
@@ -19322,7 +19318,7 @@
         <v>SWVI</v>
       </c>
     </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B200" t="str">
         <f t="shared" si="3"/>
         <v>Tahsish River</v>
@@ -19367,7 +19363,7 @@
         <v>NoKy</v>
       </c>
     </row>
-    <row r="201" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19412,7 +19408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B202">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19457,7 +19453,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B203">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19502,7 +19498,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B204">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19547,7 +19543,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19592,7 +19588,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B206">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19637,7 +19633,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19682,7 +19678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19727,7 +19723,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19772,7 +19768,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19817,7 +19813,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19862,7 +19858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19907,7 +19903,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19952,7 +19948,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19997,7 +19993,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20042,7 +20038,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B216">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20087,7 +20083,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20132,7 +20128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20177,7 +20173,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20222,7 +20218,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20267,7 +20263,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20312,7 +20308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B222">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20357,7 +20353,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B223">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20402,7 +20398,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B224">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20447,7 +20443,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B225">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20492,7 +20488,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B226">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20537,7 +20533,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20582,7 +20578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20627,7 +20623,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20672,7 +20668,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20717,7 +20713,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20762,7 +20758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20807,7 +20803,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20852,7 +20848,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B234">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20897,7 +20893,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B235">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20942,7 +20938,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20987,7 +20983,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B237">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21032,7 +21028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21077,7 +21073,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B239">
         <f>K50</f>
         <v>0</v>
@@ -21122,12 +21118,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B244" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="246" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B246" s="4" t="s">
         <v>0</v>
       </c>
@@ -21147,7 +21143,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="248" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C248" s="4" t="s">
         <v>233</v>
       </c>
@@ -21164,7 +21160,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="249" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B249" s="4" t="s">
         <v>236</v>
       </c>
@@ -21205,7 +21201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B250" s="5" t="s">
         <v>237</v>
       </c>
@@ -21246,7 +21242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B251" s="5" t="s">
         <v>239</v>
       </c>
@@ -21287,7 +21283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B252" s="5" t="s">
         <v>241</v>
       </c>
@@ -21328,7 +21324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B253" s="5" t="s">
         <v>243</v>
       </c>
@@ -21369,7 +21365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B254" s="5" t="s">
         <v>245</v>
       </c>
@@ -21386,7 +21382,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="255" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B255" s="5" t="s">
         <v>246</v>
       </c>
@@ -21403,26 +21399,26 @@
         <v>6540</v>
       </c>
     </row>
-    <row r="256" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B256" s="5"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B257" s="5"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B260" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B262" s="6" t="s">
         <v>248</v>
       </c>
@@ -21439,7 +21435,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>249</v>
       </c>
@@ -21460,7 +21456,7 @@
         <v>7 (15%)</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>250</v>
       </c>
@@ -21481,7 +21477,7 @@
         <v>964 (21%)</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>251</v>
       </c>
@@ -21502,7 +21498,7 @@
         <v>4864.5384615384619</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
         <v>252</v>
       </c>
@@ -21523,7 +21519,7 @@
         <v>4097.6329967499996</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
         <v>253</v>
       </c>
@@ -21544,7 +21540,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
         <v>254</v>
       </c>
@@ -21565,7 +21561,7 @@
         <v>5559</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
         <v>255</v>
       </c>
@@ -21586,7 +21582,7 @@
         <v>Amber</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
         <v>256</v>
       </c>
@@ -21607,7 +21603,7 @@
         <v>Amber</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>257</v>
       </c>
@@ -21628,7 +21624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>258</v>
       </c>
@@ -21649,7 +21645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
         <v>259</v>
       </c>
@@ -21670,7 +21666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
         <v>260</v>
       </c>
@@ -21691,7 +21687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>261</v>
       </c>
@@ -21712,7 +21708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>262</v>
       </c>
@@ -21733,12 +21729,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B286" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="288" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B288" s="4" t="s">
         <v>0</v>
       </c>
@@ -21758,7 +21754,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="290" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:42" x14ac:dyDescent="0.3">
       <c r="C290" s="4" t="s">
         <v>233</v>
       </c>
@@ -21775,7 +21771,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="291" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:42" x14ac:dyDescent="0.3">
       <c r="C291" t="s">
         <v>264</v>
       </c>
@@ -21804,7 +21800,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="292" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B292" s="4" t="s">
         <v>236</v>
       </c>
@@ -21923,7 +21919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B293" s="5" t="s">
         <v>237</v>
       </c>
@@ -22026,7 +22022,7 @@
       <c r="AO293" s="1"/>
       <c r="AP293" s="1"/>
     </row>
-    <row r="294" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B294" s="5" t="s">
         <v>239</v>
       </c>
@@ -22133,7 +22129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B295" s="5" t="s">
         <v>241</v>
       </c>
@@ -22234,7 +22230,7 @@
       <c r="AO295" s="1"/>
       <c r="AP295" s="1"/>
     </row>
-    <row r="296" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B296" s="5" t="s">
         <v>243</v>
       </c>
@@ -22353,7 +22349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B297" s="5" t="s">
         <v>245</v>
       </c>
@@ -22394,7 +22390,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="298" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B298" s="5" t="s">
         <v>246</v>
       </c>
@@ -22435,12 +22431,12 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="302" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B302" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="304" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:42" x14ac:dyDescent="0.3">
       <c r="C304" s="6" t="s">
         <v>23</v>
       </c>
@@ -22454,10 +22450,10 @@
       <c r="I304" s="6"/>
       <c r="J304" s="6"/>
       <c r="K304" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="305" spans="2:14" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="305" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B305" s="6" t="s">
         <v>248</v>
       </c>
@@ -22498,7 +22494,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="306" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
         <v>249</v>
       </c>
@@ -22551,7 +22547,7 @@
         <v>1 (50%)</v>
       </c>
     </row>
-    <row r="307" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
         <v>250</v>
       </c>
@@ -22604,7 +22600,7 @@
         <v>167 (77%)</v>
       </c>
     </row>
-    <row r="308" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
         <v>251</v>
       </c>
@@ -22657,7 +22653,7 @@
         <v>2899.6153846153848</v>
       </c>
     </row>
-    <row r="309" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
         <v>252</v>
       </c>
@@ -22710,7 +22706,7 @@
         <v>2695.9840949999998</v>
       </c>
     </row>
-    <row r="310" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
         <v>253</v>
       </c>
@@ -22763,7 +22759,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="311" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
         <v>254</v>
       </c>
@@ -22816,7 +22812,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="312" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
         <v>269</v>
       </c>
@@ -22869,7 +22865,7 @@
         <v>Green</v>
       </c>
     </row>
-    <row r="313" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
         <v>270</v>
       </c>
@@ -22922,7 +22918,7 @@
         <v>Green</v>
       </c>
     </row>
-    <row r="314" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
         <v>257</v>
       </c>
@@ -22975,7 +22971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
         <v>258</v>
       </c>
@@ -23028,7 +23024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
         <v>259</v>
       </c>
@@ -23081,7 +23077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
         <v>260</v>
       </c>
@@ -23134,7 +23130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
         <v>261</v>
       </c>
@@ -23187,7 +23183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
         <v>262</v>
       </c>
